--- a/DATA_goal/Junction_Flooding_244.xlsx
+++ b/DATA_goal/Junction_Flooding_244.xlsx
@@ -449,9 +449,9 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -464,12 +464,12 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41676.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.13</v>
+        <v>4.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.82</v>
+        <v>3.98</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.67</v>
+        <v>5.97</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>265.05</v>
+        <v>26.51</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.84</v>
+        <v>4.98</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.09</v>
+        <v>3.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.25</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.67</v>
+        <v>2.97</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.71</v>
+        <v>5.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41676.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>12.85</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41676.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>6.33</v>
-      </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41676.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.15</v>
+        <v>0.61</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.45</v>
+        <v>0.74</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>65.86</v>
+        <v>6.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.55</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41676.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>45.94</v>
+        <v>4.59</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>60.28</v>
+        <v>6.03</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>25.71</v>
+        <v>2.57</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.65</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>245.61</v>
+        <v>24.56</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>46.38</v>
+        <v>4.64</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.21</v>
+        <v>3.12</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>30.04</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>54.52</v>
+        <v>5.45</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41676.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>42.64</v>
+        <v>4.26</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>35.26</v>
+        <v>3.53</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>60.78</v>
+        <v>6.08</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.97</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>227.31</v>
+        <v>22.73</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>43.13</v>
+        <v>4.31</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>29.04</v>
+        <v>2.9</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.39</v>
+        <v>1.54</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.47</v>
+        <v>2.95</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>55.16</v>
+        <v>5.52</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41676.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>37.86</v>
+        <v>3.79</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.31</v>
+        <v>3.13</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>54.62</v>
+        <v>5.46</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.28</v>
+        <v>1.53</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>200.99</v>
+        <v>20.1</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>38.3</v>
+        <v>3.83</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>25.79</v>
+        <v>2.58</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.32</v>
+        <v>2.63</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>49.51</v>
+        <v>4.95</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41676.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>41.02</v>
+        <v>4.1</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>33.92</v>
+        <v>3.39</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>58.21</v>
+        <v>5.82</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>218.15</v>
+        <v>21.82</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>41.43</v>
+        <v>4.14</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>27.93</v>
+        <v>2.79</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>28.2</v>
+        <v>2.82</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>52.74</v>
+        <v>5.27</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41676.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>48.35</v>
+        <v>4.84</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>39.98</v>
+        <v>4</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>68.13</v>
+        <v>6.81</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.49</v>
+        <v>2.05</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>258.22</v>
+        <v>25.82</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>48.79</v>
+        <v>4.88</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>32.93</v>
+        <v>3.29</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>33.12</v>
+        <v>3.31</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.43</v>
+        <v>2.04</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>61.77</v>
+        <v>6.18</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_244.xlsx
+++ b/DATA_goal/Junction_Flooding_244.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,11 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -464,12 +464,12 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41676.34027777778</v>
+        <v>44925.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.81</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.98</v>
+        <v>4.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.97</v>
+        <v>6.17</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.51</v>
+        <v>27.31</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.98</v>
+        <v>5.13</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.27</v>
+        <v>5.46</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41676.34722222222</v>
+        <v>44925.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.37</v>
+        <v>2.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.31</v>
+        <v>1.85</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="S3" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>1.69</v>
+        <v>11.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.31</v>
+        <v>1.53</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.82</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.93</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.29</v>
+        <v>3.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41676.35416666666</v>
+        <v>44925.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.57</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.13</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O4" s="4" t="n">
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.29</v>
+        <v>1.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.77</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.63</v>
+        <v>3.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41676.36111111111</v>
+        <v>44925.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.61</v>
+        <v>2.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.43</v>
+        <v>1.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.31</v>
+        <v>4.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.08</v>
+        <v>4.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.48</v>
+        <v>1.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.64</v>
+        <v>6.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.74</v>
+        <v>2.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.31</v>
+        <v>1.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.48</v>
+        <v>1.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.53</v>
+        <v>1.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.48</v>
+        <v>1.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.67</v>
+        <v>2.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.42</v>
+        <v>1.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.59</v>
+        <v>26.16</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.33</v>
+        <v>4.94</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.44</v>
+        <v>1.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.87</v>
+        <v>3.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.48</v>
+        <v>1.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.78</v>
+        <v>3.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.39</v>
+        <v>1.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.36</v>
+        <v>1.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.42</v>
+        <v>1.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.43</v>
+        <v>6.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41676.36805555555</v>
+        <v>44925.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.12</v>
+        <v>18.26</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.57</v>
+        <v>13.45</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="E6" s="4" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>57.24</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>4.59</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.53</v>
-      </c>
       <c r="O6" s="4" t="n">
-        <v>1.66</v>
+        <v>14.29</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.36</v>
+        <v>20.34</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.4</v>
+        <v>12.03</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.71</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>24.56</v>
+        <v>210.15</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.64</v>
+        <v>39.99</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.53</v>
+        <v>13.19</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.12</v>
+        <v>26.88</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.66</v>
+        <v>14.27</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.21</v>
+        <v>1.8</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3</v>
+        <v>27.51</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.35</v>
+        <v>11.65</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.2</v>
+        <v>10.34</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.41</v>
+        <v>12.15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.94</v>
+        <v>16.67</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.45</v>
+        <v>51.88</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.87</v>
+        <v>7.43</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41676.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41676.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41676.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41676.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41676.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>31.18</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.42</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>199.84</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>38.11</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>49.81</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.71</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_244.xlsx
+++ b/DATA_goal/Junction_Flooding_244.xlsx
@@ -451,9 +451,9 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -655,103 +655,103 @@
         <v>44925.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>49.63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.11</v>
+        <v>41.06</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.17</v>
+        <v>61.72</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.26</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>27.31</v>
+        <v>273.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.13</v>
+        <v>51.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.41</v>
+        <v>34.14</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.62</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.03</v>
+        <v>20.3</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.59</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44925.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.54</v>
+        <v>35.44</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.86</v>
+        <v>118.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.55</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.21</v>
+        <v>32.11</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44925.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.57</v>
+        <v>25.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.7</v>
+        <v>36.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.35</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.57</v>
+        <v>135.73</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.28</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.62</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.33</v>
+        <v>33.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44925.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.88</v>
+        <v>48.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.04</v>
+        <v>40.39</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.71</v>
+        <v>67.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.16</v>
+        <v>261.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.94</v>
+        <v>49.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.28</v>
+        <v>32.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.07</v>
+        <v>60.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_244.xlsx
+++ b/DATA_goal/Junction_Flooding_244.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,34 +655,34 @@
         <v>44925.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.3</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.24</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>49.63</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.06</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>61.72</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.16</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>19.59</v>
@@ -691,67 +691,67 @@
         <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.92</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.95</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.81</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.6</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>273.07</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.31</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.14</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.29</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.62</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.74</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.3</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>54.59</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44925.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.57</v>
+        <v>10.569</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.26</v>
+        <v>7.263</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.37</v>
+        <v>22.369</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.54</v>
+        <v>18.538</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.32</v>
+        <v>8.318</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.44</v>
+        <v>35.443</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.45</v>
+        <v>5.449</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>8.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.94</v>
+        <v>8.939</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.281000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>2.66</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.63</v>
+        <v>11.631</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.14</v>
+        <v>7.137</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.584</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.59</v>
+        <v>118.591</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.27</v>
+        <v>23.271</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.34</v>
+        <v>15.341</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.215999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.983</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.55</v>
+        <v>16.548</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.17</v>
+        <v>6.172</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.21</v>
+        <v>7.207</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.292</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.11</v>
+        <v>32.113</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.2</v>
+        <v>4.203</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,28 +863,28 @@
         <v>44925.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.01</v>
+        <v>12.011</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.57</v>
+        <v>8.574999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.176</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.72</v>
+        <v>25.721</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.3</v>
+        <v>21.305</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.99</v>
+        <v>36.995</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>6.32</v>
@@ -896,70 +896,70 @@
         <v>10.35</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.79</v>
+        <v>10.787</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.02</v>
+        <v>3.019</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.27</v>
+        <v>13.273</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.044</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.051</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>135.73</v>
+        <v>135.732</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>26.28</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.48</v>
+        <v>17.478</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.391999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.144</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.62</v>
+        <v>17.615</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.91</v>
+        <v>6.911</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.1</v>
+        <v>8.097</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.81</v>
+        <v>10.815</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.27</v>
+        <v>33.274</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.83</v>
+        <v>4.825</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.85</v>
+        <v>10.846</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>20.39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44925.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.24</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.15</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_244.xlsx
+++ b/DATA_goal/Junction_Flooding_244.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -970,100 +970,204 @@
         <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.63</v>
+        <v>16.629</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.313</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.81</v>
+        <v>48.815</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.39</v>
+        <v>40.392</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.77</v>
+        <v>17.769</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>67.06</v>
+        <v>67.063</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.13</v>
+        <v>12.127</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.17</v>
+        <v>18.173</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.63</v>
+        <v>20.626</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.68</v>
+        <v>5.676</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.14</v>
+        <v>25.142</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.86</v>
+        <v>14.859</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.892</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.64</v>
+        <v>261.643</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>49.38</v>
+        <v>49.378</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.2</v>
+        <v>33.201</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.63</v>
+        <v>17.629</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.8</v>
+        <v>32.801</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.78</v>
+        <v>12.784</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.6</v>
+        <v>20.596</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>60.66</v>
+        <v>60.663</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.199</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.39</v>
+        <v>20.392</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44925.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>57.24</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>210.15</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>51.88</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_244.xlsx
+++ b/DATA_goal/Junction_Flooding_244.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -970,204 +970,100 @@
         <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.629</v>
+        <v>16.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.313</v>
+        <v>1.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.815</v>
+        <v>48.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.392</v>
+        <v>40.39</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.769</v>
+        <v>17.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>67.063</v>
+        <v>67.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.341</v>
+        <v>27.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.127</v>
+        <v>12.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.173</v>
+        <v>18.17</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.626</v>
+        <v>20.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.676</v>
+        <v>5.68</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.142</v>
+        <v>25.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.859</v>
+        <v>14.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.888</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.892</v>
+        <v>0.89</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.643</v>
+        <v>261.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>49.378</v>
+        <v>49.38</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.201</v>
+        <v>33.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.629</v>
+        <v>17.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.801</v>
+        <v>32.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.407</v>
+        <v>14.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.784</v>
+        <v>12.78</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.596</v>
+        <v>20.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>60.663</v>
+        <v>60.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.199</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.392</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44925.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.24</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.15</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>
